--- a/biology/Botanique/Parc_Sainte-Claire/Parc_Sainte-Claire.xlsx
+++ b/biology/Botanique/Parc_Sainte-Claire/Parc_Sainte-Claire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Sainte-Claire est un parc public labellisé Jardin remarquable, de 6 500 m2[1], situé sur la colline du Castéou, dans la commune de Hyères.
+Le parc Sainte-Claire est un parc public labellisé Jardin remarquable, de 6 500 m2, situé sur la colline du Castéou, dans la commune de Hyères.
 Le parc Sainte-Claire doit son nom à la villa qu’il abrite, le Castel Sainte-Claire.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Castel Sainte-Claire a été construit dans un style néo-roman, en 1849, par le colonel Olivier Voutier, sur l’emplacement d'un ancien couvent[1]. Il a ensuite appartenu à la romancière Edith Wharton, avant d'être acheté par la municipalité en 1957[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Castel Sainte-Claire a été construit dans un style néo-roman, en 1849, par le colonel Olivier Voutier, sur l’emplacement d'un ancien couvent. Il a ensuite appartenu à la romancière Edith Wharton, avant d'être acheté par la municipalité en 1957. 
 Il abrite, depuis 1989, les bureaux du Parc national de Port-Cros.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il représente environ une superficie de 6 500 m². Situé tout près[2] du Parc Saint-Bernard sur les hauteurs de la ville, et jouxtant la Collégiale Saint-Paul, la vue sur la rade d'Hyères y est imprenable[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il représente environ une superficie de 6 500 m². Situé tout près du Parc Saint-Bernard sur les hauteurs de la ville, et jouxtant la Collégiale Saint-Paul, la vue sur la rade d'Hyères y est imprenable. 
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Liste des espèces de plantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Euryops pectinatus
 Polygala myrtifolia
@@ -625,7 +643,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Sainte-Claire abrite la tombe du colonel Voutier, mort le 18 avril 1877, découvreur de la statue de la Vénus de Milo.
 </t>
